--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_33.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_33.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998323126184989</v>
+        <v>0.9497975117910246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8258450014830099</v>
+        <v>0.745606236014444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8151796782601668</v>
+        <v>0.7595956704600564</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996300919792825</v>
+        <v>0.9734055949085817</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006980032022202378</v>
+        <v>0.1759853536525638</v>
       </c>
       <c r="G2" t="n">
-        <v>1.164575276993145</v>
+        <v>1.701132271146988</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6610915743653972</v>
+        <v>0.8599123473204411</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002075885516523464</v>
+        <v>0.130982978572117</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03836650021060762</v>
+        <v>1.386117640326943</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02641975023008806</v>
+        <v>0.4195060829744472</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010731992416069</v>
+        <v>0.9316391649920335</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0268358348861509</v>
+        <v>0.4261128844290615</v>
       </c>
       <c r="N2" t="n">
-        <v>144.5345737350087</v>
+        <v>37.47470901057989</v>
       </c>
       <c r="O2" t="n">
-        <v>285.8697462782251</v>
+        <v>74.43929259880571</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998334997351291</v>
+        <v>0.9498428567987117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8257308469680397</v>
+        <v>0.7454480792695346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8151018777095871</v>
+        <v>0.7594854439410311</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999637425394677</v>
+        <v>0.9737760950562887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006930617975548886</v>
+        <v>0.1758263962482814</v>
       </c>
       <c r="G3" t="n">
-        <v>1.165338628760384</v>
+        <v>1.702189866028442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6613698624236857</v>
+        <v>0.8603066211876936</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002034731148541369</v>
+        <v>0.129158188254708</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03912315671058474</v>
+        <v>1.386909702870992</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02632606688350709</v>
+        <v>0.4193165823674058</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010656016951735</v>
+        <v>0.9317009113854798</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02674067612051027</v>
+        <v>0.4259203993768903</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5487827775785</v>
+        <v>37.47651631138942</v>
       </c>
       <c r="O3" t="n">
-        <v>285.8839553207949</v>
+        <v>74.44109989961524</v>
       </c>
     </row>
     <row r="4">
@@ -610,242 +610,242 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998340374166176</v>
+        <v>0.9498469410290095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8254979232769769</v>
+        <v>0.7453260319457475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8150647891793783</v>
+        <v>0.7594968497343859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999662318566243</v>
+        <v>0.9738818420421994</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006908236840045667</v>
+        <v>0.1758120789357541</v>
       </c>
       <c r="G4" t="n">
-        <v>1.166896190555036</v>
+        <v>1.703005997044582</v>
       </c>
       <c r="H4" t="n">
-        <v>0.661502525945726</v>
+        <v>0.8602658233262094</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001895033246847316</v>
+        <v>0.1286373623463261</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04163685739237732</v>
+        <v>1.387080575096443</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02628352495394342</v>
+        <v>0.4192995098205508</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010621605336475</v>
+        <v>0.9317064728905661</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0266974641980823</v>
+        <v>0.4259030579544885</v>
       </c>
       <c r="N4" t="n">
-        <v>144.5552518547715</v>
+        <v>37.47667917539373</v>
       </c>
       <c r="O4" t="n">
-        <v>285.8904243979879</v>
+        <v>74.44126276361956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_5</t>
+          <t>model_1_33_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998307529136076</v>
+        <v>0.9498506006346086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.825413429920776</v>
+        <v>0.7452030696921034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8152098963592922</v>
+        <v>0.7595083631321393</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996650807252018</v>
+        <v>0.9739879553890942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007044955154695956</v>
+        <v>0.1757992501496009</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167461198017008</v>
+        <v>1.70382824620089</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6609834859769719</v>
+        <v>0.8602246405700309</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001879532296730822</v>
+        <v>0.1281147320338693</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03906968515354424</v>
+        <v>1.387247795879654</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02654233440128422</v>
+        <v>0.419284211662687</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010831813529116</v>
+        <v>0.9317114561832968</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02696034963550418</v>
+        <v>0.425887518865931</v>
       </c>
       <c r="N5" t="n">
-        <v>144.5160571843928</v>
+        <v>37.47682511820157</v>
       </c>
       <c r="O5" t="n">
-        <v>285.8512297276092</v>
+        <v>74.4414087064274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_6</t>
+          <t>model_1_33_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998292045834286</v>
+        <v>0.9498540285405189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8253623651672142</v>
+        <v>0.745078723269724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8150521424809428</v>
+        <v>0.7595206494227995</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996573205876844</v>
+        <v>0.974093910440802</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007109404811751767</v>
+        <v>0.1757872335891583</v>
       </c>
       <c r="G6" t="n">
-        <v>1.167802668259207</v>
+        <v>1.704659751299904</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6615477624527323</v>
+        <v>0.8601806932207392</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00192308138508825</v>
+        <v>0.1275928813581447</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03866739492621053</v>
+        <v>1.387416682667176</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0266634671634275</v>
+        <v>0.4192698815669429</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010930906660569</v>
+        <v>0.9317161239700683</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02708339011756289</v>
+        <v>0.4258729630855038</v>
       </c>
       <c r="N6" t="n">
-        <v>144.4978436861847</v>
+        <v>37.47696183062942</v>
       </c>
       <c r="O6" t="n">
-        <v>285.8330162294011</v>
+        <v>74.44154541885524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_3</t>
+          <t>model_1_33_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998243799459736</v>
+        <v>0.9498698243857934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8247578096793018</v>
+        <v>0.7431179029703769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8155146489070847</v>
+        <v>0.759734831417153</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996911330462954</v>
+        <v>0.9758627454860005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007310231633840222</v>
+        <v>0.1757318610863995</v>
       </c>
       <c r="G7" t="n">
-        <v>1.171845333590599</v>
+        <v>1.717771765670384</v>
       </c>
       <c r="H7" t="n">
-        <v>0.659893403784086</v>
+        <v>0.8594145766459222</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001733329367891248</v>
+        <v>0.1188810007190997</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04102513705881906</v>
+        <v>1.38941613558871</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02703744003015119</v>
+        <v>0.4192038419270505</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011239683457688</v>
+        <v>0.9317376332061867</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02746325268310176</v>
+        <v>0.4258058833872985</v>
       </c>
       <c r="N7" t="n">
-        <v>144.4421308229214</v>
+        <v>37.47759192445995</v>
       </c>
       <c r="O7" t="n">
-        <v>285.7773033661377</v>
+        <v>74.44217551268576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_4</t>
+          <t>model_1_33_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998350535206725</v>
+        <v>0.9498629528562873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8247034707441433</v>
+        <v>0.7429687361130312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8157671079592169</v>
+        <v>0.7597646906960933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999712348440412</v>
+        <v>0.9759670865904232</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006865941237491505</v>
+        <v>0.1757559493057967</v>
       </c>
       <c r="G8" t="n">
-        <v>1.172208698300212</v>
+        <v>1.718769245132306</v>
       </c>
       <c r="H8" t="n">
-        <v>0.658990372393026</v>
+        <v>0.8593077717364935</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001614270772490715</v>
+        <v>0.1183670990695682</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03975882856911927</v>
+        <v>1.389487548554377</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02620294112784194</v>
+        <v>0.4192325718569547</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010556574676961</v>
+        <v>0.931728276229838</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02661561125727399</v>
+        <v>0.4258350657848793</v>
       </c>
       <c r="N8" t="n">
-        <v>144.5675344709102</v>
+        <v>37.47731779581341</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9027070141266</v>
+        <v>74.44190138403923</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998192868305965</v>
+        <v>0.9497544422521272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245599840728008</v>
+        <v>0.7414572848305807</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8156397268498288</v>
+        <v>0.760087995280017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996833702261031</v>
+        <v>0.9770063960595434</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007522233921113386</v>
+        <v>0.1761363343769242</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173168194332174</v>
+        <v>1.728876326817645</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6594460072353265</v>
+        <v>0.858151329986075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001776893511142941</v>
+        <v>0.1132482836850685</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03897053496733434</v>
+        <v>1.390108867232236</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02742669123520624</v>
+        <v>0.4196859949735328</v>
       </c>
       <c r="L9" t="n">
-        <v>1.011565642841823</v>
+        <v>0.9315805171092797</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02785863420552797</v>
+        <v>0.4262956298622867</v>
       </c>
       <c r="N9" t="n">
-        <v>144.3849544283027</v>
+        <v>37.47299391334225</v>
       </c>
       <c r="O9" t="n">
-        <v>285.7201269715191</v>
+        <v>74.43757750156807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_0</t>
+          <t>model_1_33_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998118249727882</v>
+        <v>0.949736408838789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8244865351091407</v>
+        <v>0.7412887119665179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.815853427454202</v>
+        <v>0.7601306874284095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996731976086543</v>
+        <v>0.9771041467724624</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007832835744465707</v>
+        <v>0.176199550698209</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173659347890371</v>
+        <v>1.73000357433584</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6586816125645565</v>
+        <v>0.8579986226467082</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001833981187118187</v>
+        <v>0.1127668410849554</v>
       </c>
       <c r="J10" t="n">
-        <v>0.035582184305306</v>
+        <v>1.39020811963164</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02798720376255139</v>
+        <v>0.4197613020494017</v>
       </c>
       <c r="L10" t="n">
-        <v>1.012043201741555</v>
+        <v>0.9315559609719679</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02842797424487184</v>
+        <v>0.426372122949321</v>
       </c>
       <c r="N10" t="n">
-        <v>144.3040315269898</v>
+        <v>37.47227623087344</v>
       </c>
       <c r="O10" t="n">
-        <v>285.6392040702062</v>
+        <v>74.43685981909925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_1</t>
+          <t>model_1_33_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998164150701436</v>
+        <v>0.9497079536044862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8243155088887641</v>
+        <v>0.7409471928012541</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8155186341131029</v>
+        <v>0.7601549789226683</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996756629222089</v>
+        <v>0.9774472338118676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007641771716631839</v>
+        <v>0.1762993008231665</v>
       </c>
       <c r="G11" t="n">
-        <v>1.174803001013532</v>
+        <v>1.732287314566511</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6598791489332348</v>
+        <v>0.8579117333802463</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001820146102677973</v>
+        <v>0.1110770660297773</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03573972979671845</v>
+        <v>1.390765800951366</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02764375465929301</v>
+        <v>0.4198801029141134</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011749435510808</v>
+        <v>0.9315172134188748</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02807911616156029</v>
+        <v>0.4264927948088946</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3534217911995</v>
+        <v>37.47114431084375</v>
       </c>
       <c r="O11" t="n">
-        <v>285.6885943344158</v>
+        <v>74.43572789906958</v>
       </c>
     </row>
   </sheetData>
